--- a/graphics/line-test/line-test.xlsx
+++ b/graphics/line-test/line-test.xlsx
@@ -23,13 +23,13 @@
     <t>headline</t>
   </si>
   <si>
-    <t>The Headline For This Graphic</t>
+    <t>Test Headline</t>
   </si>
   <si>
     <t>subhed</t>
   </si>
   <si>
-    <t>This is default text in the copytext spreadsheet template. &lt;strong&gt;&lt;a href="https://docs.google.com/spreadsheets/d/1ciRc--h8HuBpQzMebVygC4x_y9dvKxp6OA45ccRrIX4/edit#gid=0" target="_blank"&gt;Make a copy of the spreadsheet template&lt;/a&gt;&lt;/strong&gt; (File -&gt; Make a copy...), put it in the &lt;strong&gt;dailygraphics&lt;/strong&gt; shared folder, and update your graphic_config.py to point to the new sheet. Delete any rows you don't need, and add others as needed. Don't forget to fab update_copy:[graphic] to update the text! </t>
+    <t>Subhed test</t>
   </si>
   <si>
     <t>footnote</t>
@@ -41,7 +41,7 @@
     <t>credit</t>
   </si>
   <si>
-    <t>NPR</t>
+    <t>Mother Jones</t>
   </si>
   <si>
     <t>hdr_state</t>
